--- a/example_modify.xlsx
+++ b/example_modify.xlsx
@@ -373,7 +373,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="n">
-        <v>43310.00021639196</v>
+        <v>43310.67534804854</v>
       </c>
     </row>
     <row r="6" spans="1:8">
